--- a/TimeMemoryUsage.xlsx
+++ b/TimeMemoryUsage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wding/Projects/Github/pyballc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0F3E5-278E-194F-BDCE-869B1A0C34B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9878C-C9E3-754A-B149-61833E62F624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33440" yWindow="-580" windowWidth="28040" windowHeight="17440" xr2:uid="{64C38187-9393-484A-9906-347D56585236}"/>
   </bookViews>
@@ -75,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +91,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,12 +150,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD3D3D3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -458,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2250C00-22CD-6048-BA88-B02865AA6834}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +490,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -499,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -524,7 +538,7 @@
         <v>15.530860900878906</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>750</v>
       </c>
@@ -549,7 +563,7 @@
         <v>12.709793090820312</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>500</v>
       </c>
@@ -573,8 +587,9 @@
         <f t="shared" si="1"/>
         <v>7.8678779602050781</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>250</v>
       </c>
@@ -599,7 +614,7 @@
         <v>4.0677490234375</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -624,7 +639,7 @@
         <v>1.7683753967285156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>50</v>
       </c>
@@ -649,7 +664,7 @@
         <v>0.97506332397460938</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -674,7 +689,7 @@
         <v>0.23773193359375</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1000</v>
       </c>
@@ -699,7 +714,7 @@
         <v>4.4145889282226562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>500</v>
       </c>
@@ -724,7 +739,7 @@
         <v>4.1432914733886719</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>100</v>
       </c>
@@ -749,7 +764,7 @@
         <v>3.6664772033691406</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>50</v>
       </c>
@@ -774,7 +789,7 @@
         <v>2.6155014038085938</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -799,7 +814,7 @@
         <v>1.0043792724609375</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
